--- a/9.0 CRONOGRAMA/CRONOGRAMA- SANTA ROSA - 01.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- SANTA ROSA - 01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0005\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0007-PROGRESO\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D5AF43-A74C-4F35-9112-E384816665BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,9 +82,6 @@
     <t xml:space="preserve">Estructuras </t>
   </si>
   <si>
-    <t xml:space="preserve">Instalaciones Sanitarias </t>
-  </si>
-  <si>
     <t>Inslataciones Electricas</t>
   </si>
   <si>
@@ -123,6 +119,9 @@
   </si>
   <si>
     <t>ACCIONES</t>
+  </si>
+  <si>
+    <t>Evacuacion de aguas Pluviales</t>
   </si>
   <si>
     <r>
@@ -136,33 +135,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IEP N°54411 "ANDRES AVELINO CACERES - SANTA ROSA",DISTRITO SANTA ROSA, PROVINCIA GRAU-REGION APURIMAC</t>
+      <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IES, "FRAY DIEGO ORTIZ"- PROGRESO, DISTRITO PROGRESO, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-  </si>
-  <si>
-    <t>Evacuacion de aguas Pluviales</t>
-  </si>
-  <si>
-    <t>Cronograma de inversión IOARR: “OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IEP N°54411 "ANDRES AVELINO CACERES - SANTA ROSA",DISTRITO SANTA ROSA, PROVINCIA GRAU-REGION APURIMAC”</t>
+  </si>
+  <si>
+    <t>Cronograma de inversión IOARR: “OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IES "FRAY DIEGO ORTIZ"-PROGRESO, DISTRITO PROGRESO, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
+  </si>
+  <si>
+    <t>Evacuacion de Aguas Pluviales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -603,7 +592,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,16 +616,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,25 +634,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,16 +661,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,6 +682,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -702,28 +694,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,21 +744,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,7 +782,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -853,7 +842,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -913,7 +902,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -973,7 +962,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1033,7 +1022,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1082,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1153,7 +1142,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1202,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,7 +1262,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1322,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1382,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,14 +1689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1722,32 +1711,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1758,17 +1747,17 @@
       <c r="B3" s="14"/>
       <c r="C3" s="15">
         <f>F3</f>
-        <v>3524.03</v>
+        <v>4174.2700000000004</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15">
-        <v>3524.03</v>
+        <v>4174.2700000000004</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -1783,12 +1772,12 @@
       <c r="B5" s="14"/>
       <c r="C5" s="15">
         <f>F5</f>
-        <v>127623.44</v>
+        <v>119189.96</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15">
-        <v>127623.44</v>
+        <v>119189.96</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1798,50 +1787,50 @@
       <c r="B6" s="14"/>
       <c r="C6" s="15">
         <f>F6/2</f>
-        <v>40273.769999999997</v>
+        <v>54774.375</v>
       </c>
       <c r="D6" s="15">
         <f>F6/2</f>
-        <v>40273.769999999997</v>
+        <v>54774.375</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15">
-        <v>80547.539999999994</v>
+        <v>109548.75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15">
         <f>F7</f>
-        <v>16061.35</v>
+        <v>5427.25</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15">
-        <v>16061.35</v>
+        <v>5427.25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15">
         <f>F8</f>
-        <v>7363.19</v>
+        <v>11211.5</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
-        <v>7363.19</v>
+        <v>11211.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15">
@@ -1861,16 +1850,16 @@
       <c r="B10" s="20"/>
       <c r="C10" s="21">
         <f>SUM(C3:C9)</f>
-        <v>175421.24</v>
+        <v>182138.60500000001</v>
       </c>
       <c r="D10" s="21">
         <f>SUM(D3:D9)</f>
-        <v>63698.31</v>
+        <v>71413.125</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23">
         <f>+F5+F6+F7+F8+F9+F3</f>
-        <v>239119.55</v>
+        <v>253551.73</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1911,7 +1900,7 @@
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="25">
@@ -1967,11 +1956,11 @@
       </c>
       <c r="C16" s="31">
         <f>SUM(C10:C15)</f>
-        <v>227142.91</v>
+        <v>233860.27499999999</v>
       </c>
       <c r="D16" s="31">
         <f>SUM(D10:D15)</f>
-        <v>115419.98</v>
+        <v>123134.795</v>
       </c>
       <c r="E16" s="31">
         <f>SUM(E10:E15)</f>
@@ -1980,16 +1969,16 @@
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="33">
         <f>SUM(F10:F15)+0.01</f>
-        <v>369853.64999999997</v>
+        <v>384285.83</v>
       </c>
     </row>
   </sheetData>
@@ -2003,15 +1992,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2023,108 +2012,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="A1" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54" t="s">
+      <c r="A2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
       <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="N3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="R3" s="9"/>
     </row>
@@ -2149,30 +2138,30 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="15">
-        <v>3524.03</v>
+        <v>4174.2700000000004</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="52"/>
+      <c r="A5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2195,7 +2184,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="15">
-        <v>127623.44</v>
+        <v>119189.96</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2219,12 +2208,12 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="15">
-        <v>80547.539999999994</v>
+        <v>109548.75</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2243,12 +2232,12 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="15">
-        <v>16061.35</v>
+        <v>5427.25</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2267,12 +2256,12 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="15">
-        <v>7363.19</v>
+        <v>11211.5</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2316,7 +2305,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="23">
         <f>+R6+R7+R8+R9+R10+R4</f>
-        <v>239119.55</v>
+        <v>253551.73</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2369,7 +2358,7 @@
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2440,7 +2429,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="53" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6"/>
@@ -2462,69 +2451,64 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="42">
+      <c r="A18" s="54"/>
+      <c r="B18" s="47">
         <f>FINANCIERO!B16</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50">
         <f>FINANCIERO!C16</f>
-        <v>227142.91</v>
-      </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="45">
+        <v>233860.27499999999</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="50">
         <f>FINANCIERO!D16</f>
-        <v>115419.98</v>
-      </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="45">
+        <v>123134.795</v>
+      </c>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="50">
         <f>FINANCIERO!E16</f>
         <v>17290.75</v>
       </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="47"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
       <c r="R19" s="7">
         <f>SUM(R11:R16)+0.01</f>
-        <v>369853.64999999997</v>
+        <v>384285.83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B18:E18"/>
@@ -2533,6 +2517,11 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
